--- a/second-order/1875/October1875.xlsx
+++ b/second-order/1875/October1875.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\expnaspre\library_archive$\ARCHIVE\Data\Second Order Books - KEYING\1875\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1875/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6266" documentId="13_ncr:1_{77145B4E-7AB8-418D-998F-01605113020C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49754654-F0B9-4555-9661-C9CC02B93201}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41578EDA-D971-BA4C-A5B4-AC84B9B666FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="8" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="800" yWindow="900" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Hawes" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +568,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,9 +587,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,9 +607,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -647,7 +647,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -753,7 +753,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -895,7 +895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -908,59 +908,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3119,60 +3119,60 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>41</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1.288</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5311,7 +5311,7 @@
         <v>5.4279999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="U36" s="1">
         <f>SUM(U4:U34)</f>
         <v>5.4279999999999999</v>
@@ -5337,60 +5337,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>0.50900000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -7549,60 +7549,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>50</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -9761,60 +9761,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="L37" sqref="L37"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>51</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -11049,7 +11049,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1.0980000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>51</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>51</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -11973,60 +11973,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>56</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>56</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>56</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>56</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>56</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -14185,60 +14185,60 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>0.81599999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -16396,61 +16396,61 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -16596,7 +16596,7 @@
       <c r="E5" s="5">
         <v>29.748000000000001</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="32">
         <v>29.86</v>
       </c>
       <c r="G5" s="1">
@@ -16645,7 +16645,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5">
-        <v>28.853999999999999</v>
+        <v>29.853999999999999</v>
       </c>
       <c r="F11" s="6">
         <v>29.792999999999999</v>
@@ -17035,7 +17035,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>58</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>58</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>58</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
@@ -18075,7 +18075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>58</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
@@ -18335,7 +18335,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>58</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>58</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>58</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -18608,61 +18608,61 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="32" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="32" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18727,7 +18727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>61</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>61</v>
       </c>
@@ -18857,7 +18857,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
@@ -19182,7 +19182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -19247,7 +19247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>61</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>61</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>61</v>
       </c>
@@ -20027,7 +20027,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>61</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
@@ -20287,7 +20287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>61</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
@@ -20547,7 +20547,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>61</v>
       </c>
@@ -20612,7 +20612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>61</v>
       </c>
@@ -20677,7 +20677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -20742,7 +20742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -20817,11 +20817,52 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21127,52 +21168,11 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21196,17 +21196,51 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2F25143-D6BC-4297-873C-349BD4F5E3F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40431BAA-DBAF-4F60-B3C9-FF41C21C1461}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7DCC820-5A1D-4C8C-9D3F-230338F17BF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7DCC820-5A1D-4C8C-9D3F-230338F17BF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40431BAA-DBAF-4F60-B3C9-FF41C21C1461}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2F25143-D6BC-4297-873C-349BD4F5E3F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E54EEAD8-DB31-4103-B18C-1F4EE021BA68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E54EEAD8-DB31-4103-B18C-1F4EE021BA68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>